--- a/deaths.xlsx
+++ b/deaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595E359-09D5-46C5-8F07-F9AE654EF352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB5DDF-8572-4E7E-BB57-DEB3F6EAC2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,6 +875,132 @@
         <v>8</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43913</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43914</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43915</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43916</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43917</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43918</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/deaths.xlsx
+++ b/deaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB5DDF-8572-4E7E-BB57-DEB3F6EAC2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA9DB3-5AFD-465A-8F86-85BBFE54D252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1001,69 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43919</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43920</v>
+      </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/deaths.xlsx
+++ b/deaths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agus\Desktop\covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA9DB3-5AFD-465A-8F86-85BBFE54D252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C6C71C-8C2C-4F29-8CB2-66C26C32FBA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51384B4E-308C-4B73-9B76-E401B234305C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="9">
   <si>
     <t>Country</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022E08B-3C3F-4CA7-B4DA-28104442DB72}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,6 +1064,1057 @@
         <v>8</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43922</v>
+      </c>
+      <c r="F31">
+        <v>32</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43923</v>
+      </c>
+      <c r="F32">
+        <v>36</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43924</v>
+      </c>
+      <c r="F33">
+        <v>42</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43925</v>
+      </c>
+      <c r="F34">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43926</v>
+      </c>
+      <c r="F35">
+        <v>46</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43927</v>
+      </c>
+      <c r="F36">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43928</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43929</v>
+      </c>
+      <c r="F38">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43930</v>
+      </c>
+      <c r="F39">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43931</v>
+      </c>
+      <c r="F40">
+        <v>83</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43932</v>
+      </c>
+      <c r="F41">
+        <v>89</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43933</v>
+      </c>
+      <c r="F42">
+        <v>95</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43934</v>
+      </c>
+      <c r="F43">
+        <v>98</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43935</v>
+      </c>
+      <c r="F44">
+        <v>105</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43936</v>
+      </c>
+      <c r="F45">
+        <v>112</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43937</v>
+      </c>
+      <c r="F46">
+        <v>122</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43938</v>
+      </c>
+      <c r="F47">
+        <v>129</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43939</v>
+      </c>
+      <c r="F48">
+        <v>132</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43940</v>
+      </c>
+      <c r="F49">
+        <v>134</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43941</v>
+      </c>
+      <c r="F50">
+        <v>142</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43942</v>
+      </c>
+      <c r="F51">
+        <v>151</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43943</v>
+      </c>
+      <c r="F52">
+        <v>159</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43944</v>
+      </c>
+      <c r="F53">
+        <v>165</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43945</v>
+      </c>
+      <c r="F54">
+        <v>176</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43946</v>
+      </c>
+      <c r="F55">
+        <v>185</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43947</v>
+      </c>
+      <c r="F56">
+        <v>192</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43948</v>
+      </c>
+      <c r="F57">
+        <v>197</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43949</v>
+      </c>
+      <c r="F58">
+        <v>207</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43950</v>
+      </c>
+      <c r="F59">
+        <v>214</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F60">
+        <v>218</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43952</v>
+      </c>
+      <c r="F61">
+        <f>218+7</f>
+        <v>225</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43953</v>
+      </c>
+      <c r="F62">
+        <v>237</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43954</v>
+      </c>
+      <c r="F63">
+        <v>246</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43955</v>
+      </c>
+      <c r="F64">
+        <v>260</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43956</v>
+      </c>
+      <c r="F65">
+        <v>264</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43957</v>
+      </c>
+      <c r="F66">
+        <v>273</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43958</v>
+      </c>
+      <c r="F67">
+        <v>282</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43959</v>
+      </c>
+      <c r="F68">
+        <v>293</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43960</v>
+      </c>
+      <c r="F69">
+        <v>300</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43961</v>
+      </c>
+      <c r="F70">
+        <v>305</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43962</v>
+      </c>
+      <c r="F71">
+        <v>314</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43963</v>
+      </c>
+      <c r="F72">
+        <v>319</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43964</v>
+      </c>
+      <c r="F73">
+        <v>329</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43965</v>
+      </c>
+      <c r="F74">
+        <v>353</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43966</v>
+      </c>
+      <c r="F75">
+        <v>356</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43967</v>
+      </c>
+      <c r="F76">
+        <v>363</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43968</v>
+      </c>
+      <c r="F77" s="1">
+        <v>373</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43969</v>
+      </c>
+      <c r="F78" s="1">
+        <v>382</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43970</v>
+      </c>
+      <c r="F79" s="1">
+        <v>393</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43971</v>
+      </c>
+      <c r="F80" s="1">
+        <v>403</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
